--- a/LR3/table_1_43.xlsx
+++ b/LR3/table_1_43.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66687C1E-DD20-466B-86EE-86272ABE54B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D40CF32-E573-4EED-A5FB-781ADFBD8F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LR3/table_1_43.xlsx
+++ b/LR3/table_1_43.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D40CF32-E573-4EED-A5FB-781ADFBD8F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E21FD5-2989-4D96-AAD1-9A8EF5244AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,15 +123,6 @@
     <t>Куропаткин 8</t>
   </si>
   <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
     <t>№ квартиры</t>
   </si>
   <si>
@@ -174,10 +165,19 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
     <t>Камалов</t>
+  </si>
+  <si>
+    <t>Санников</t>
+  </si>
+  <si>
+    <t>Ахмадуллина</t>
+  </si>
+  <si>
+    <t>Алаа</t>
+  </si>
+  <si>
+    <t>Майкал</t>
   </si>
 </sst>
 </file>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -607,37 +607,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1181,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1717,30 +1717,30 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f>C26-0.5</f>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f>D26</f>
         <v>47.300000000000004</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f>C27*D27</f>
         <v>2743.4</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="7"/>
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="8"/>
+        <f>G26+1</f>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1766,7 +1766,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1811,7 +1811,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1856,7 +1856,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1901,7 +1901,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1946,7 +1946,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1991,7 +1991,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2036,7 +2036,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2081,7 +2081,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2092,7 +2092,7 @@
         <v>23.650000000000002</v>
       </c>
       <c r="E35" s="1">
-        <f>C35*D35</f>
+        <f t="shared" si="0"/>
         <v>1277.1000000000001</v>
       </c>
       <c r="F35" s="3">
@@ -2126,14 +2126,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>D3/2</f>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
         <v>23.650000000000002</v>
       </c>
       <c r="E36" s="1">
@@ -2171,14 +2171,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f>D3/2</f>
+        <f t="shared" si="10"/>
         <v>23.650000000000002</v>
       </c>
       <c r="E37" s="1">
@@ -2216,14 +2216,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>D3/2</f>
+        <f t="shared" si="10"/>
         <v>23.650000000000002</v>
       </c>
       <c r="E38" s="1">
@@ -2254,50 +2254,42 @@
         <f t="shared" si="3"/>
         <v>1511.625</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4">
-        <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>103039</v>
-      </c>
-      <c r="F40" s="1"/>
+        <f>FLOOR(SUM(K3:K26),1)</f>
+        <v>74136</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1">
-        <f>AVERAGE(C3:C38)</f>
-        <v>61.25</v>
-      </c>
-      <c r="F41" s="1"/>
+        <f>AVERAGE(C3:C26)</f>
+        <v>64.25</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1">
-        <f>MAX(H3:H38)</f>
-        <v>27</v>
-      </c>
-      <c r="F42" s="1"/>
+        <f>MAX(H3:H26)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(K3:K38)</f>
+        <f>MAX(K3:K26)</f>
         <v>3311.0000000000005</v>
       </c>
-      <c r="F43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/LR3/table_1_43.xlsx
+++ b/LR3/table_1_43.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E21FD5-2989-4D96-AAD1-9A8EF5244AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8EBFD3-8813-439E-B44B-4568E1BBF2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,10 +174,10 @@
     <t>Ахмадуллина</t>
   </si>
   <si>
-    <t>Алаа</t>
-  </si>
-  <si>
-    <t>Майкал</t>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -1811,7 +1811,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1856,7 +1856,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -2133,7 +2133,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <f>D3/2</f>
         <v>23.650000000000002</v>
       </c>
       <c r="E36" s="1">
@@ -2178,7 +2178,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>23.650000000000002</v>
       </c>
       <c r="E37" s="1">
@@ -2223,7 +2223,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>23.650000000000002</v>
       </c>
       <c r="E38" s="1">
@@ -2260,8 +2260,8 @@
         <v>40</v>
       </c>
       <c r="C40" s="4">
-        <f>FLOOR(SUM(K3:K26),1)</f>
-        <v>74136</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>103039</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2269,8 +2269,8 @@
         <v>36</v>
       </c>
       <c r="C41" s="1">
-        <f>AVERAGE(C3:C26)</f>
-        <v>64.25</v>
+        <f>AVERAGE(C3:C38)</f>
+        <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2278,8 +2278,8 @@
         <v>37</v>
       </c>
       <c r="C42" s="1">
-        <f>MAX(H3:H26)</f>
-        <v>15</v>
+        <f>MAX(H3:H38)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2287,7 +2287,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(K3:K26)</f>
+        <f>MAX(K3:K38)</f>
         <v>3311.0000000000005</v>
       </c>
     </row>

--- a/LR3/table_1_43.xlsx
+++ b/LR3/table_1_43.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8EBFD3-8813-439E-B44B-4568E1BBF2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EC70CE-9DAD-43DF-873C-C19A79A2D9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -821,7 +821,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -866,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
